--- a/Sprint4/Libro4.xlsx
+++ b/Sprint4/Libro4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaniMaci\Desktop\UNIVERSIDAD 16-17\CURSO 16-17\PRIMER CUATRI\PROCESO DE SOFTWARE (PS)\04-Practica\Sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaniMaci\Documents\GitHub\PS\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>PROBAR DEFENSA DE MURO</t>
+  </si>
+  <si>
+    <t>DÍA 8</t>
+  </si>
+  <si>
+    <t>DÍA 9</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -398,11 +404,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +506,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L16"/>
+  <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,12 +805,12 @@
     <col min="3" max="3" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -800,9 +821,11 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>0</v>
@@ -813,7 +836,7 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="35" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="32"/>
@@ -821,9 +844,11 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -849,8 +874,14 @@
       <c r="K5" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16" t="s">
@@ -880,8 +911,14 @@
       <c r="K6" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
         <v>13</v>
@@ -896,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>12</v>
@@ -913,8 +950,14 @@
       <c r="K7" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
@@ -926,12 +969,12 @@
       <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="28">
         <v>1</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" s="28" t="s">
         <v>12</v>
       </c>
@@ -941,11 +984,17 @@
       <c r="J8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="14" t="s">
@@ -960,10 +1009,12 @@
       <c r="F9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="H9" s="12"/>
       <c r="I9" s="15" t="s">
         <v>12</v>
       </c>
@@ -971,8 +1022,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
         <v>18</v>
@@ -989,12 +1042,14 @@
       <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25" t="s">
-        <v>12</v>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.5</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>12</v>
@@ -1002,9 +1057,15 @@
       <c r="K10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="9" t="s">
@@ -1020,20 +1081,26 @@
         <v>12</v>
       </c>
       <c r="G11" s="30"/>
-      <c r="H11" s="12">
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="29">
         <v>0.5</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>12</v>
-      </c>
       <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16" t="s">
@@ -1054,17 +1121,23 @@
       <c r="H12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>12</v>
+      <c r="I12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="12" t="s">
         <v>14</v>
@@ -1087,17 +1160,23 @@
       <c r="H13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="29">
-        <v>4.5</v>
+      <c r="I13" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="29">
+        <v>2</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
@@ -1119,23 +1198,33 @@
         <v>12</v>
       </c>
       <c r="I14" s="17"/>
-      <c r="J14" s="17">
+      <c r="J14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="18">
         <v>1</v>
       </c>
-      <c r="K14" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="34"/>
+      <c r="N17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
